--- a/words.xlsx
+++ b/words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="188">
   <si>
     <t>English</t>
   </si>
@@ -55,15 +55,15 @@
     <t>Competitive programming</t>
   </si>
   <si>
+    <t>Until the end of time</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
     <t>Word</t>
   </si>
   <si>
-    <t>Until the end of time</t>
-  </si>
-  <si>
-    <t>Exception</t>
-  </si>
-  <si>
     <t>Restore</t>
   </si>
   <si>
@@ -214,6 +214,99 @@
     <t>Book</t>
   </si>
   <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>Specification</t>
+  </si>
+  <si>
+    <t>Responsibilities</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Reliable</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Possible</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Launch</t>
+  </si>
+  <si>
+    <t>Itemize</t>
+  </si>
+  <si>
+    <t>Indicate</t>
+  </si>
+  <si>
+    <t>Establish</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Fix</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Displayed</t>
+  </si>
+  <si>
+    <t>Discretion</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Cover</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Compatibility</t>
+  </si>
+  <si>
+    <t>Brief</t>
+  </si>
+  <si>
+    <t>Carefully</t>
+  </si>
+  <si>
+    <t>Beta test</t>
+  </si>
+  <si>
+    <t>Backup</t>
+  </si>
+  <si>
+    <t>Adjusted</t>
+  </si>
+  <si>
+    <t>Visual aids</t>
+  </si>
+  <si>
+    <t>Piace</t>
+  </si>
+  <si>
+    <t>Extra randomness</t>
+  </si>
+  <si>
+    <t>Check out the documentation</t>
+  </si>
+  <si>
+    <t>Multithreading</t>
+  </si>
+  <si>
     <t>Между частями приложения</t>
   </si>
   <si>
@@ -241,15 +334,15 @@
     <t>Конкурентное программирование</t>
   </si>
   <si>
+    <t>До конца веков</t>
+  </si>
+  <si>
+    <t>Исключение</t>
+  </si>
+  <si>
     <t>Слово</t>
   </si>
   <si>
-    <t>До конца веков</t>
-  </si>
-  <si>
-    <t>Исключение</t>
-  </si>
-  <si>
     <t>Восстанавливать</t>
   </si>
   <si>
@@ -395,6 +488,96 @@
   </si>
   <si>
     <t>Книга</t>
+  </si>
+  <si>
+    <t>Условие</t>
+  </si>
+  <si>
+    <t>Особенность</t>
+  </si>
+  <si>
+    <t>Обязанности</t>
+  </si>
+  <si>
+    <t>Требования</t>
+  </si>
+  <si>
+    <t>Надёжный</t>
+  </si>
+  <si>
+    <t>Возможный</t>
+  </si>
+  <si>
+    <t>Техобслуживание</t>
+  </si>
+  <si>
+    <t>Запуск</t>
+  </si>
+  <si>
+    <t>Составить перечень</t>
+  </si>
+  <si>
+    <t>Указать</t>
+  </si>
+  <si>
+    <t>Устанавливать</t>
+  </si>
+  <si>
+    <t>Редактировать</t>
+  </si>
+  <si>
+    <t>Исправлять</t>
+  </si>
+  <si>
+    <t>Домен</t>
+  </si>
+  <si>
+    <t>Отображаемый</t>
+  </si>
+  <si>
+    <t>Усмотрение</t>
+  </si>
+  <si>
+    <t>База данных</t>
+  </si>
+  <si>
+    <t>Описывать</t>
+  </si>
+  <si>
+    <t>Контент</t>
+  </si>
+  <si>
+    <t>Совместимость</t>
+  </si>
+  <si>
+    <t>Краткий</t>
+  </si>
+  <si>
+    <t>Тщательно</t>
+  </si>
+  <si>
+    <t>Опытная эксплуатация</t>
+  </si>
+  <si>
+    <t>Запас</t>
+  </si>
+  <si>
+    <t>Настроенный</t>
+  </si>
+  <si>
+    <t>Наглядные пособия</t>
+  </si>
+  <si>
+    <t>Мир</t>
+  </si>
+  <si>
+    <t>Лишняя случайность</t>
+  </si>
+  <si>
+    <t>Ознакомиться с документацией</t>
+  </si>
+  <si>
+    <t>Многопоточность</t>
   </si>
 </sst>
 </file>
@@ -752,7 +935,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -771,7 +954,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -779,7 +962,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -787,7 +970,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -795,7 +978,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -803,7 +986,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -811,7 +994,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -819,7 +1002,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -827,7 +1010,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -835,7 +1018,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -843,7 +1026,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -851,7 +1034,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -859,447 +1042,671 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>126</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Documents/WorkSpace/Home/Backend/Projects/Apps/Console_transtaler/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37F617A-0ADB-1944-93B6-F538C4AC68A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="184">
   <si>
     <t>English</t>
   </si>
@@ -292,12 +298,6 @@
     <t>Adjusted</t>
   </si>
   <si>
-    <t>Visual aids</t>
-  </si>
-  <si>
-    <t>Piace</t>
-  </si>
-  <si>
     <t>Extra randomness</t>
   </si>
   <si>
@@ -563,12 +563,6 @@
   </si>
   <si>
     <t>Настроенный</t>
-  </si>
-  <si>
-    <t>Наглядные пособия</t>
-  </si>
-  <si>
-    <t>Мир</t>
   </si>
   <si>
     <t>Лишняя случайность</t>
@@ -583,8 +577,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,6 +641,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -693,7 +695,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -725,9 +727,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -759,6 +779,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -934,14 +972,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -949,764 +989,748 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10912"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Documents/WorkSpace/Home/Backend/Projects/Apps/Console_transtaler/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37F617A-0ADB-1944-93B6-F538C4AC68A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="244">
   <si>
     <t>English</t>
   </si>
@@ -307,6 +301,96 @@
     <t>Multithreading</t>
   </si>
   <si>
+    <t>Visual aids</t>
+  </si>
+  <si>
+    <t>Totally</t>
+  </si>
+  <si>
+    <t>Sum up</t>
+  </si>
+  <si>
+    <t>Slightly</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>Refer</t>
+  </si>
+  <si>
+    <t>Recap</t>
+  </si>
+  <si>
+    <t>Really</t>
+  </si>
+  <si>
+    <t>Quite</t>
+  </si>
+  <si>
+    <t>Properly</t>
+  </si>
+  <si>
+    <t>Outline</t>
+  </si>
+  <si>
+    <t>Obviously</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Move on</t>
+  </si>
+  <si>
+    <t>Mention</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Mainly</t>
+  </si>
+  <si>
+    <t>Likely</t>
+  </si>
+  <si>
+    <t>Instead</t>
+  </si>
+  <si>
+    <t>Extremely</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>Especially</t>
+  </si>
+  <si>
+    <t>Directly</t>
+  </si>
+  <si>
+    <t>Deeply</t>
+  </si>
+  <si>
+    <t>Currently</t>
+  </si>
+  <si>
+    <t>Conclude</t>
+  </si>
+  <si>
+    <t>Completely</t>
+  </si>
+  <si>
+    <t>Briefly</t>
+  </si>
+  <si>
+    <t>Beg pardon</t>
+  </si>
+  <si>
+    <t>Acceptable</t>
+  </si>
+  <si>
     <t>Между частями приложения</t>
   </si>
   <si>
@@ -572,13 +656,103 @@
   </si>
   <si>
     <t>Многопоточность</t>
+  </si>
+  <si>
+    <t>Наглядные пособия</t>
+  </si>
+  <si>
+    <t>Полностью</t>
+  </si>
+  <si>
+    <t>Подводить итоги</t>
+  </si>
+  <si>
+    <t>Слегка</t>
+  </si>
+  <si>
+    <t>Делиться</t>
+  </si>
+  <si>
+    <t>Ссылаться</t>
+  </si>
+  <si>
+    <t>Резюмировать</t>
+  </si>
+  <si>
+    <t>Действительно</t>
+  </si>
+  <si>
+    <t>Довольно</t>
+  </si>
+  <si>
+    <t>Непосредственно</t>
+  </si>
+  <si>
+    <t>Очертить</t>
+  </si>
+  <si>
+    <t>Очевидно</t>
+  </si>
+  <si>
+    <t>Записи</t>
+  </si>
+  <si>
+    <t>Двигаться дальше</t>
+  </si>
+  <si>
+    <t>Упоминать</t>
+  </si>
+  <si>
+    <t>Иметь в виду</t>
+  </si>
+  <si>
+    <t>В основном</t>
+  </si>
+  <si>
+    <t>Похоже</t>
+  </si>
+  <si>
+    <t>Вместо</t>
+  </si>
+  <si>
+    <t>Сильно, интенсивно</t>
+  </si>
+  <si>
+    <t>Оценивать</t>
+  </si>
+  <si>
+    <t>Особенно</t>
+  </si>
+  <si>
+    <t>Напрямую</t>
+  </si>
+  <si>
+    <t>Детально</t>
+  </si>
+  <si>
+    <t>На данный момент</t>
+  </si>
+  <si>
+    <t>Сделать вывод</t>
+  </si>
+  <si>
+    <t>В полной мере</t>
+  </si>
+  <si>
+    <t>Кратко</t>
+  </si>
+  <si>
+    <t>Просить прощения</t>
+  </si>
+  <si>
+    <t>Приемлемый</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,14 +815,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -695,7 +861,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -727,27 +893,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -779,24 +927,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -972,16 +1102,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -989,748 +1117,988 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>183</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="423">
   <si>
     <t>English</t>
   </si>
@@ -391,6 +391,276 @@
     <t>Acceptable</t>
   </si>
   <si>
+    <t>Waste</t>
+  </si>
+  <si>
+    <t>Veer off</t>
+  </si>
+  <si>
+    <t>Trustworthy</t>
+  </si>
+  <si>
+    <t>To-do list</t>
+  </si>
+  <si>
+    <t>Timely</t>
+  </si>
+  <si>
+    <t>Timeframe</t>
+  </si>
+  <si>
+    <t>Sufficient</t>
+  </si>
+  <si>
+    <t>Streamline</t>
+  </si>
+  <si>
+    <t>Stakeholders</t>
+  </si>
+  <si>
+    <t>Significantly</t>
+  </si>
+  <si>
+    <t>Shift</t>
+  </si>
+  <si>
+    <t>Route map</t>
+  </si>
+  <si>
+    <t>Proceed</t>
+  </si>
+  <si>
+    <t>Oversee</t>
+  </si>
+  <si>
+    <t>Occasion</t>
+  </si>
+  <si>
+    <t>Milestone</t>
+  </si>
+  <si>
+    <t>Keep within</t>
+  </si>
+  <si>
+    <t>Frantic pace</t>
+  </si>
+  <si>
+    <t>Forecast</t>
+  </si>
+  <si>
+    <t>Exhausted</t>
+  </si>
+  <si>
+    <t>Enthusiastic</t>
+  </si>
+  <si>
+    <t>Ensure</t>
+  </si>
+  <si>
+    <t>Due date</t>
+  </si>
+  <si>
+    <t>Determine</t>
+  </si>
+  <si>
+    <t>Delay</t>
+  </si>
+  <si>
+    <t>Creep</t>
+  </si>
+  <si>
+    <t>Carry out</t>
+  </si>
+  <si>
+    <t>Broaden</t>
+  </si>
+  <si>
+    <t>Allot</t>
+  </si>
+  <si>
+    <t>Align</t>
+  </si>
+  <si>
+    <t>Viable</t>
+  </si>
+  <si>
+    <t>Vesting</t>
+  </si>
+  <si>
+    <t>Venture capital</t>
+  </si>
+  <si>
+    <t>Underlie</t>
+  </si>
+  <si>
+    <t>Tremendous</t>
+  </si>
+  <si>
+    <t>Sustainable</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Return on investment</t>
+  </si>
+  <si>
+    <t>Reinforce</t>
+  </si>
+  <si>
+    <t>Proof of concept</t>
+  </si>
+  <si>
+    <t>Overrule</t>
+  </si>
+  <si>
+    <t>Middleware</t>
+  </si>
+  <si>
+    <t>Mezzanine financing</t>
+  </si>
+  <si>
+    <t>Loan</t>
+  </si>
+  <si>
+    <t>Ground floor</t>
+  </si>
+  <si>
+    <t>Founder</t>
+  </si>
+  <si>
+    <t>Flawless</t>
+  </si>
+  <si>
+    <t>Equity financing</t>
+  </si>
+  <si>
+    <t>Elevator pitch</t>
+  </si>
+  <si>
+    <t>Due diligence</t>
+  </si>
+  <si>
+    <t>Debt financing</t>
+  </si>
+  <si>
+    <t>Crucial</t>
+  </si>
+  <si>
+    <t>Cost variance</t>
+  </si>
+  <si>
+    <t>Compelling</t>
+  </si>
+  <si>
+    <t>Cloudware</t>
+  </si>
+  <si>
+    <t>Bootstrapping</t>
+  </si>
+  <si>
+    <t>Bleeding edge</t>
+  </si>
+  <si>
+    <t>Benchmark</t>
+  </si>
+  <si>
+    <t>Bankroll</t>
+  </si>
+  <si>
+    <t>Alter</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Agile</t>
+  </si>
+  <si>
+    <t>Concept development</t>
+  </si>
+  <si>
+    <t>Life cycle</t>
+  </si>
+  <si>
+    <t>Increment</t>
+  </si>
+  <si>
+    <t>Interpreter</t>
+  </si>
+  <si>
+    <t>Compile</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>Accomplish</t>
+  </si>
+  <si>
+    <t>Reuse</t>
+  </si>
+  <si>
+    <t>Modification</t>
+  </si>
+  <si>
+    <t>Prototyping</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Structured</t>
+  </si>
+  <si>
+    <t>Source code</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>Maintain</t>
+  </si>
+  <si>
+    <t>Bug fixing</t>
+  </si>
+  <si>
+    <t>Documenting</t>
+  </si>
+  <si>
+    <t>Eliminate</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>Specifying</t>
+  </si>
+  <si>
+    <t>Core activity</t>
+  </si>
+  <si>
+    <t>Software maintenance</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>Deliver</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Development process</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
     <t>Между частями приложения</t>
   </si>
   <si>
@@ -746,6 +1016,273 @@
   </si>
   <si>
     <t>Приемлемый</t>
+  </si>
+  <si>
+    <t>Тратить зря</t>
+  </si>
+  <si>
+    <t>Отклоняться (от темы)</t>
+  </si>
+  <si>
+    <t>Надежный</t>
+  </si>
+  <si>
+    <t>Список дел</t>
+  </si>
+  <si>
+    <t>Своевременно</t>
+  </si>
+  <si>
+    <t>Отрезок времени</t>
+  </si>
+  <si>
+    <t>Достаточный</t>
+  </si>
+  <si>
+    <t>Упрощать</t>
+  </si>
+  <si>
+    <t>Заинтересованные стороны</t>
+  </si>
+  <si>
+    <t>Значительно</t>
+  </si>
+  <si>
+    <t>Сдвигать</t>
+  </si>
+  <si>
+    <t>План действий</t>
+  </si>
+  <si>
+    <t>Продолжать</t>
+  </si>
+  <si>
+    <t>Наблюдать, контролировать</t>
+  </si>
+  <si>
+    <t>Событие</t>
+  </si>
+  <si>
+    <t>Этап работы</t>
+  </si>
+  <si>
+    <t>Придерживаться</t>
+  </si>
+  <si>
+    <t>Бешеный темп</t>
+  </si>
+  <si>
+    <t>Предугадывать</t>
+  </si>
+  <si>
+    <t>Выжатый</t>
+  </si>
+  <si>
+    <t>Полный энергии</t>
+  </si>
+  <si>
+    <t>Обеспечить</t>
+  </si>
+  <si>
+    <t>Срок окончания</t>
+  </si>
+  <si>
+    <t>Определять</t>
+  </si>
+  <si>
+    <t>Задерживать</t>
+  </si>
+  <si>
+    <t>Подкрадываться</t>
+  </si>
+  <si>
+    <t>Выполнить</t>
+  </si>
+  <si>
+    <t>Назначать</t>
+  </si>
+  <si>
+    <t>Упорядочить</t>
+  </si>
+  <si>
+    <t>Жизнеспособный</t>
+  </si>
+  <si>
+    <t>Передача права</t>
+  </si>
+  <si>
+    <t>Предпринимательский капитал</t>
+  </si>
+  <si>
+    <t>Лежать в основе</t>
+  </si>
+  <si>
+    <t>Колоссальный</t>
+  </si>
+  <si>
+    <t>Устойчивое</t>
+  </si>
+  <si>
+    <t>Доход</t>
+  </si>
+  <si>
+    <t>Прибыль на инвестиции</t>
+  </si>
+  <si>
+    <t>Усиливать</t>
+  </si>
+  <si>
+    <t>Проверка концепции</t>
+  </si>
+  <si>
+    <t>Отклонить</t>
+  </si>
+  <si>
+    <t>Межплатформенное по</t>
+  </si>
+  <si>
+    <t>Дополнительное финансирование</t>
+  </si>
+  <si>
+    <t>Заем</t>
+  </si>
+  <si>
+    <t>Начальный этап</t>
+  </si>
+  <si>
+    <t>Учредитель</t>
+  </si>
+  <si>
+    <t>Безупречный</t>
+  </si>
+  <si>
+    <t>Акционерное финансирование</t>
+  </si>
+  <si>
+    <t>Краткая презентация</t>
+  </si>
+  <si>
+    <t>Проверка благонадежности финансового состояния компании</t>
+  </si>
+  <si>
+    <t>Привлечение кредитования</t>
+  </si>
+  <si>
+    <t>Решающий</t>
+  </si>
+  <si>
+    <t>Отклонения от затрат</t>
+  </si>
+  <si>
+    <t>Убедительный</t>
+  </si>
+  <si>
+    <t>Облачное по</t>
+  </si>
+  <si>
+    <t>Самораскрутка</t>
+  </si>
+  <si>
+    <t>Новейший продукт</t>
+  </si>
+  <si>
+    <t>Критерий</t>
+  </si>
+  <si>
+    <t>Спонсировать</t>
+  </si>
+  <si>
+    <t>Видоизменять</t>
+  </si>
+  <si>
+    <t>Функционировать</t>
+  </si>
+  <si>
+    <t>Гибкий</t>
+  </si>
+  <si>
+    <t>Разработка концепции</t>
+  </si>
+  <si>
+    <t>Жизненный цикл</t>
+  </si>
+  <si>
+    <t>Увеличение</t>
+  </si>
+  <si>
+    <t>Интерпретатор</t>
+  </si>
+  <si>
+    <t>Компилировать</t>
+  </si>
+  <si>
+    <t>Инструмент</t>
+  </si>
+  <si>
+    <t>Выполнять</t>
+  </si>
+  <si>
+    <t>Использовать повторно</t>
+  </si>
+  <si>
+    <t>Преобразование</t>
+  </si>
+  <si>
+    <t>Разработка прототипа</t>
+  </si>
+  <si>
+    <t>Исследовать</t>
+  </si>
+  <si>
+    <t>Структурированный</t>
+  </si>
+  <si>
+    <t>Исходный код</t>
+  </si>
+  <si>
+    <t>Фреймворк</t>
+  </si>
+  <si>
+    <t>Поддерживать</t>
+  </si>
+  <si>
+    <t>Устранение ошибки</t>
+  </si>
+  <si>
+    <t>Документирование</t>
+  </si>
+  <si>
+    <t>Исключать</t>
+  </si>
+  <si>
+    <t>Программирование</t>
+  </si>
+  <si>
+    <t>Детализирование</t>
+  </si>
+  <si>
+    <t>Ключевой процесс</t>
+  </si>
+  <si>
+    <t>Сопровождение по</t>
+  </si>
+  <si>
+    <t>Развертывание</t>
+  </si>
+  <si>
+    <t>Отладка</t>
+  </si>
+  <si>
+    <t>Доставлять</t>
+  </si>
+  <si>
+    <t>Проектирование</t>
+  </si>
+  <si>
+    <t>Процесс разработки</t>
+  </si>
+  <si>
+    <t>Программное обеспечение</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1640,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B124"/>
+  <dimension ref="A1:B214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1122,7 +1659,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1130,7 +1667,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1138,7 +1675,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1146,7 +1683,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1154,7 +1691,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1162,7 +1699,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1170,7 +1707,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1178,7 +1715,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1186,7 +1723,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1194,7 +1731,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1202,7 +1739,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1210,7 +1747,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1218,7 +1755,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1226,7 +1763,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1234,7 +1771,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1242,7 +1779,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1250,7 +1787,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1258,7 +1795,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1266,7 +1803,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1274,7 +1811,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>142</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1282,7 +1819,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>143</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1290,7 +1827,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1298,7 +1835,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1306,7 +1843,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>146</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1314,7 +1851,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>147</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1322,7 +1859,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>148</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1330,7 +1867,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>149</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1338,7 +1875,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>150</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1346,7 +1883,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>151</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1354,7 +1891,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>152</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1362,7 +1899,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>153</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1370,7 +1907,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>154</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1378,7 +1915,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>155</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1386,7 +1923,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>156</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1394,7 +1931,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1402,7 +1939,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>158</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1410,7 +1947,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>159</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1418,7 +1955,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>160</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1426,7 +1963,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>161</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1434,7 +1971,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>162</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1442,7 +1979,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1450,7 +1987,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1458,7 +1995,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>165</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1466,7 +2003,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1474,7 +2011,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>167</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1482,7 +2019,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1490,7 +2027,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1498,7 +2035,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>170</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1506,7 +2043,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1514,7 +2051,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>172</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1522,7 +2059,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>173</v>
+        <v>263</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1530,7 +2067,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1538,7 +2075,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>175</v>
+        <v>265</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1546,7 +2083,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>176</v>
+        <v>266</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1554,7 +2091,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>177</v>
+        <v>267</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1562,7 +2099,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1570,7 +2107,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1578,7 +2115,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1586,7 +2123,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1594,7 +2131,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>182</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1602,7 +2139,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>183</v>
+        <v>273</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1610,7 +2147,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1618,7 +2155,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>184</v>
+        <v>274</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1626,7 +2163,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>185</v>
+        <v>275</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1634,7 +2171,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>186</v>
+        <v>276</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1642,7 +2179,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>187</v>
+        <v>277</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1650,7 +2187,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>188</v>
+        <v>278</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1658,7 +2195,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>189</v>
+        <v>279</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1666,7 +2203,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>190</v>
+        <v>280</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1674,7 +2211,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>152</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1682,7 +2219,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>191</v>
+        <v>281</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1690,7 +2227,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>192</v>
+        <v>282</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1698,7 +2235,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>193</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1706,7 +2243,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>194</v>
+        <v>284</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1714,7 +2251,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>195</v>
+        <v>285</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1722,7 +2259,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>196</v>
+        <v>286</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1730,7 +2267,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>197</v>
+        <v>287</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1738,7 +2275,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>198</v>
+        <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1746,7 +2283,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>199</v>
+        <v>289</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1754,7 +2291,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>200</v>
+        <v>290</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1762,7 +2299,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>201</v>
+        <v>291</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1770,7 +2307,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>202</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1778,7 +2315,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>203</v>
+        <v>293</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1786,7 +2323,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>204</v>
+        <v>294</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1794,7 +2331,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>205</v>
+        <v>295</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1802,7 +2339,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>206</v>
+        <v>296</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1810,7 +2347,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>207</v>
+        <v>297</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1818,7 +2355,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>208</v>
+        <v>298</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1826,7 +2363,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>209</v>
+        <v>299</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1834,7 +2371,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1842,7 +2379,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>211</v>
+        <v>301</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1850,7 +2387,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>212</v>
+        <v>302</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1858,7 +2395,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>213</v>
+        <v>303</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1866,7 +2403,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>214</v>
+        <v>304</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1874,7 +2411,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>215</v>
+        <v>305</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1882,7 +2419,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>216</v>
+        <v>306</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1890,7 +2427,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>217</v>
+        <v>307</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1898,7 +2435,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>218</v>
+        <v>308</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1906,7 +2443,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>219</v>
+        <v>309</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1914,7 +2451,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>220</v>
+        <v>310</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1922,7 +2459,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>221</v>
+        <v>311</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1930,7 +2467,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>222</v>
+        <v>312</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1938,7 +2475,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>223</v>
+        <v>313</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1946,7 +2483,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1954,7 +2491,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>225</v>
+        <v>315</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1962,7 +2499,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>226</v>
+        <v>316</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1970,7 +2507,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>227</v>
+        <v>317</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1978,7 +2515,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>228</v>
+        <v>318</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1986,7 +2523,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>229</v>
+        <v>319</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1994,7 +2531,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>230</v>
+        <v>320</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2002,7 +2539,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>231</v>
+        <v>321</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2010,7 +2547,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>232</v>
+        <v>322</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2018,7 +2555,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>233</v>
+        <v>323</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2026,7 +2563,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>234</v>
+        <v>324</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2034,7 +2571,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>235</v>
+        <v>325</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2042,7 +2579,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>236</v>
+        <v>326</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2050,7 +2587,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>237</v>
+        <v>327</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2058,7 +2595,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>238</v>
+        <v>328</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2066,7 +2603,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>239</v>
+        <v>329</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2074,7 +2611,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>240</v>
+        <v>330</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2082,7 +2619,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>241</v>
+        <v>331</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2090,7 +2627,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>242</v>
+        <v>332</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2098,7 +2635,727 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>243</v>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="833">
   <si>
     <t>English</t>
   </si>
@@ -661,6 +661,630 @@
     <t>Software</t>
   </si>
   <si>
+    <t>Minimal viable product</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Collect information</t>
+  </si>
+  <si>
+    <t>Constrain</t>
+  </si>
+  <si>
+    <t>Potential</t>
+  </si>
+  <si>
+    <t>Minimize</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Seize opportunity</t>
+  </si>
+  <si>
+    <t>Threat</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>Reconcile</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Assess</t>
+  </si>
+  <si>
+    <t>Investigate</t>
+  </si>
+  <si>
+    <t>Behavior</t>
+  </si>
+  <si>
+    <t>Collaborate</t>
+  </si>
+  <si>
+    <t>Wireframes</t>
+  </si>
+  <si>
+    <t>Market research</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>User story</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>Lead to</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Initial</t>
+  </si>
+  <si>
+    <t>Idea generation</t>
+  </si>
+  <si>
+    <t>Step by step</t>
+  </si>
+  <si>
+    <t>Screening</t>
+  </si>
+  <si>
+    <t>Meet needs</t>
+  </si>
+  <si>
+    <t>Track</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Domain expert</t>
+  </si>
+  <si>
+    <t>Comprehensive</t>
+  </si>
+  <si>
+    <t>User experience</t>
+  </si>
+  <si>
+    <t>Checklist</t>
+  </si>
+  <si>
+    <t>Consistent</t>
+  </si>
+  <si>
+    <t>Unambiguous</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>End-product</t>
+  </si>
+  <si>
+    <t>Visualization</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>Take into account</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Altered</t>
+  </si>
+  <si>
+    <t>Post-it note</t>
+  </si>
+  <si>
+    <t>Follow</t>
+  </si>
+  <si>
+    <t>Capability</t>
+  </si>
+  <si>
+    <t>Product owner</t>
+  </si>
+  <si>
+    <t>Focus group</t>
+  </si>
+  <si>
+    <t>Use case</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Execute</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>Verify</t>
+  </si>
+  <si>
+    <t>Validate</t>
+  </si>
+  <si>
+    <t>Scalability</t>
+  </si>
+  <si>
+    <t>Portable</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Usability</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Robustness</t>
+  </si>
+  <si>
+    <t>Reliability</t>
+  </si>
+  <si>
+    <t>Fault-tolerance</t>
+  </si>
+  <si>
+    <t>Extensible</t>
+  </si>
+  <si>
+    <t>Compatible</t>
+  </si>
+  <si>
+    <t>Design considerations</t>
+  </si>
+  <si>
+    <t>Information hiding</t>
+  </si>
+  <si>
+    <t>Hierarchy</t>
+  </si>
+  <si>
+    <t>Encapsulation</t>
+  </si>
+  <si>
+    <t>Modularity</t>
+  </si>
+  <si>
+    <t>Refinement</t>
+  </si>
+  <si>
+    <t>Unified</t>
+  </si>
+  <si>
+    <t>Code refactoring</t>
+  </si>
+  <si>
+    <t>Code-review</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Software architect</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Graphical user interface</t>
+  </si>
+  <si>
+    <t>User interface design</t>
+  </si>
+  <si>
+    <t>Design pattern</t>
+  </si>
+  <si>
+    <t>Abstraction</t>
+  </si>
+  <si>
+    <t>Detailed design</t>
+  </si>
+  <si>
+    <t>Predesign</t>
+  </si>
+  <si>
+    <t>Class inheritance</t>
+  </si>
+  <si>
+    <t>Merge</t>
+  </si>
+  <si>
+    <t>Backup storage</t>
+  </si>
+  <si>
+    <t>Api</t>
+  </si>
+  <si>
+    <t>Sub-system</t>
+  </si>
+  <si>
+    <t>Built-in</t>
+  </si>
+  <si>
+    <t>Command line</t>
+  </si>
+  <si>
+    <t>Parse</t>
+  </si>
+  <si>
+    <t>Defect</t>
+  </si>
+  <si>
+    <t>Embedded software</t>
+  </si>
+  <si>
+    <t>Object-oriented programming</t>
+  </si>
+  <si>
+    <t>Integrate</t>
+  </si>
+  <si>
+    <t>Duplicated code</t>
+  </si>
+  <si>
+    <t>Readability</t>
+  </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t>High-level</t>
+  </si>
+  <si>
+    <t>Low-level</t>
+  </si>
+  <si>
+    <t>Workflow</t>
+  </si>
+  <si>
+    <t>Transition</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Elaboration</t>
+  </si>
+  <si>
+    <t>Inception</t>
+  </si>
+  <si>
+    <t>Artifact</t>
+  </si>
+  <si>
+    <t>Existing</t>
+  </si>
+  <si>
+    <t>Invent</t>
+  </si>
+  <si>
+    <t>Contribute</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>Software engineer</t>
+  </si>
+  <si>
+    <t>Coder</t>
+  </si>
+  <si>
+    <t>Compiler</t>
+  </si>
+  <si>
+    <t>Regression testing</t>
+  </si>
+  <si>
+    <t>Backward compatibility</t>
+  </si>
+  <si>
+    <t>Syntax checker</t>
+  </si>
+  <si>
+    <t>Proofreading</t>
+  </si>
+  <si>
+    <t>Explicit</t>
+  </si>
+  <si>
+    <t>Implicit</t>
+  </si>
+  <si>
+    <t>Debugger</t>
+  </si>
+  <si>
+    <t>Test case</t>
+  </si>
+  <si>
+    <t>Test coverage</t>
+  </si>
+  <si>
+    <t>Interact</t>
+  </si>
+  <si>
+    <t>Dead code</t>
+  </si>
+  <si>
+    <t>Failure</t>
+  </si>
+  <si>
+    <t>Fault</t>
+  </si>
+  <si>
+    <t>Occur</t>
+  </si>
+  <si>
+    <t>Iterative process</t>
+  </si>
+  <si>
+    <t>Feasible</t>
+  </si>
+  <si>
+    <t>Conduct</t>
+  </si>
+  <si>
+    <t>Appropriate</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Beta-testing</t>
+  </si>
+  <si>
+    <t>Unit testing</t>
+  </si>
+  <si>
+    <t>Comply with</t>
+  </si>
+  <si>
+    <t>Arise</t>
+  </si>
+  <si>
+    <t>Troubleshooting</t>
+  </si>
+  <si>
+    <t>Scarce</t>
+  </si>
+  <si>
+    <t>Qa automation engineer</t>
+  </si>
+  <si>
+    <t>Quality control specialist</t>
+  </si>
+  <si>
+    <t>Quality assurance engineer</t>
+  </si>
+  <si>
+    <t>Semi-automatic</t>
+  </si>
+  <si>
+    <t>Lag time</t>
+  </si>
+  <si>
+    <t>Lead time</t>
+  </si>
+  <si>
+    <t>Commit</t>
+  </si>
+  <si>
+    <t>Serverless computing</t>
+  </si>
+  <si>
+    <t>Microservice</t>
+  </si>
+  <si>
+    <t>Modifiability</t>
+  </si>
+  <si>
+    <t>Deployability</t>
+  </si>
+  <si>
+    <t>Pre-production</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>Modify</t>
+  </si>
+  <si>
+    <t>Removal</t>
+  </si>
+  <si>
+    <t>Continuous delivery</t>
+  </si>
+  <si>
+    <t>Automatically</t>
+  </si>
+  <si>
+    <t>Manually</t>
+  </si>
+  <si>
+    <t>Customized</t>
+  </si>
+  <si>
+    <t>Precise</t>
+  </si>
+  <si>
+    <t>Detect</t>
+  </si>
+  <si>
+    <t>Central repository</t>
+  </si>
+  <si>
+    <t>Continuous integration</t>
+  </si>
+  <si>
+    <t>Uninstallation</t>
+  </si>
+  <si>
+    <t>Version tracking</t>
+  </si>
+  <si>
+    <t>Adaptation</t>
+  </si>
+  <si>
+    <t>Deactivation</t>
+  </si>
+  <si>
+    <t>Activation</t>
+  </si>
+  <si>
+    <t>Installation</t>
+  </si>
+  <si>
+    <t>Devops</t>
+  </si>
+  <si>
+    <t>Logic bug</t>
+  </si>
+  <si>
+    <t>Semantic error</t>
+  </si>
+  <si>
+    <t>Syntax error</t>
+  </si>
+  <si>
+    <t>Tolerated error</t>
+  </si>
+  <si>
+    <t>Minor changes</t>
+  </si>
+  <si>
+    <t>Convince</t>
+  </si>
+  <si>
+    <t>Prove</t>
+  </si>
+  <si>
+    <t>Help desk</t>
+  </si>
+  <si>
+    <t>Data migration</t>
+  </si>
+  <si>
+    <t>Software retirement</t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t>Warranty period</t>
+  </si>
+  <si>
+    <t>Evolve</t>
+  </si>
+  <si>
+    <t>Unscheduled maintenance</t>
+  </si>
+  <si>
+    <t>Hot fix</t>
+  </si>
+  <si>
+    <t>Software maintainers</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Error-prone</t>
+  </si>
+  <si>
+    <t>Defect tracking tools</t>
+  </si>
+  <si>
+    <t>Re-engineering</t>
+  </si>
+  <si>
+    <t>Adjustment</t>
+  </si>
+  <si>
+    <t>Obsolete</t>
+  </si>
+  <si>
+    <t>Alignment</t>
+  </si>
+  <si>
+    <t>Optimize</t>
+  </si>
+  <si>
+    <t>Preventive maintenance</t>
+  </si>
+  <si>
+    <t>Perfective maintenance</t>
+  </si>
+  <si>
+    <t>Adaptive maintenance</t>
+  </si>
+  <si>
+    <t>Corrective maintenance</t>
+  </si>
+  <si>
+    <t>Unacceptable</t>
+  </si>
+  <si>
+    <t>Prevent</t>
+  </si>
+  <si>
+    <t>Impact on</t>
+  </si>
+  <si>
+    <t>Legacy software</t>
+  </si>
+  <si>
+    <t>Enhancement</t>
+  </si>
+  <si>
     <t>Между частями приложения</t>
   </si>
   <si>
@@ -1283,6 +1907,612 @@
   </si>
   <si>
     <t>Программное обеспечение</t>
+  </si>
+  <si>
+    <t>Минимально жизнеспособный продукт</t>
+  </si>
+  <si>
+    <t>Заказчик</t>
+  </si>
+  <si>
+    <t>Собирать данные</t>
+  </si>
+  <si>
+    <t>Накладывать ограничения</t>
+  </si>
+  <si>
+    <t>Потенциальный</t>
+  </si>
+  <si>
+    <t>Минимизировать</t>
+  </si>
+  <si>
+    <t>Сильная сторона</t>
+  </si>
+  <si>
+    <t>Воспользоваться случаем</t>
+  </si>
+  <si>
+    <t>Угроза</t>
+  </si>
+  <si>
+    <t>Внешний</t>
+  </si>
+  <si>
+    <t>Внутренний</t>
+  </si>
+  <si>
+    <t>Согласовывать</t>
+  </si>
+  <si>
+    <t>Мониторить</t>
+  </si>
+  <si>
+    <t>Поведение</t>
+  </si>
+  <si>
+    <t>Структурная схема</t>
+  </si>
+  <si>
+    <t>Исследование рынка</t>
+  </si>
+  <si>
+    <t>Панель</t>
+  </si>
+  <si>
+    <t>Пользовательские истории</t>
+  </si>
+  <si>
+    <t>Этап</t>
+  </si>
+  <si>
+    <t>Вариант</t>
+  </si>
+  <si>
+    <t>Вести к</t>
+  </si>
+  <si>
+    <t>Свойство</t>
+  </si>
+  <si>
+    <t>Финальный</t>
+  </si>
+  <si>
+    <t>Начальный</t>
+  </si>
+  <si>
+    <t>Генерация идеи</t>
+  </si>
+  <si>
+    <t>Шаг за шагом</t>
+  </si>
+  <si>
+    <t>Отбор</t>
+  </si>
+  <si>
+    <t>Соответствовать потребностям</t>
+  </si>
+  <si>
+    <t>Отслеживать</t>
+  </si>
+  <si>
+    <t>Конфигурация</t>
+  </si>
+  <si>
+    <t>Среда</t>
+  </si>
+  <si>
+    <t>Эксперт в определённой области знаний</t>
+  </si>
+  <si>
+    <t>Исчерпывающий</t>
+  </si>
+  <si>
+    <t>Опыт взаимодействия с пользователем</t>
+  </si>
+  <si>
+    <t>Список задач</t>
+  </si>
+  <si>
+    <t>Последовательный</t>
+  </si>
+  <si>
+    <t>Недвусмысленный</t>
+  </si>
+  <si>
+    <t>Моделирование</t>
+  </si>
+  <si>
+    <t>Конечный продукт</t>
+  </si>
+  <si>
+    <t>Визуализация</t>
+  </si>
+  <si>
+    <t>Сценарий</t>
+  </si>
+  <si>
+    <t>Включать</t>
+  </si>
+  <si>
+    <t>Принимать во внимание</t>
+  </si>
+  <si>
+    <t>Значительный</t>
+  </si>
+  <si>
+    <t>Видоизмененный</t>
+  </si>
+  <si>
+    <t>Стикер</t>
+  </si>
+  <si>
+    <t>Способность</t>
+  </si>
+  <si>
+    <t>Владелец продукта</t>
+  </si>
+  <si>
+    <t>Фокус-группа</t>
+  </si>
+  <si>
+    <t>Сценарий использования</t>
+  </si>
+  <si>
+    <t>Область</t>
+  </si>
+  <si>
+    <t>Значение</t>
+  </si>
+  <si>
+    <t>Решение</t>
+  </si>
+  <si>
+    <t>Проверять</t>
+  </si>
+  <si>
+    <t>Признавать действительным</t>
+  </si>
+  <si>
+    <t>Масштабируемость</t>
+  </si>
+  <si>
+    <t>Портативный</t>
+  </si>
+  <si>
+    <t>Производительность</t>
+  </si>
+  <si>
+    <t>Удобство в использовании</t>
+  </si>
+  <si>
+    <t>Безопасность</t>
+  </si>
+  <si>
+    <t>Живучесть</t>
+  </si>
+  <si>
+    <t>Повторно использовать</t>
+  </si>
+  <si>
+    <t>Надежность</t>
+  </si>
+  <si>
+    <t>Отказоустойчивость</t>
+  </si>
+  <si>
+    <t>Расширяемый</t>
+  </si>
+  <si>
+    <t>Совместимый</t>
+  </si>
+  <si>
+    <t>Конструктивные соображения</t>
+  </si>
+  <si>
+    <t>Сокрытие информации</t>
+  </si>
+  <si>
+    <t>Иерархия</t>
+  </si>
+  <si>
+    <t>Инкапсуляция</t>
+  </si>
+  <si>
+    <t>Модульность</t>
+  </si>
+  <si>
+    <t>Детализация</t>
+  </si>
+  <si>
+    <t>Унифицированный</t>
+  </si>
+  <si>
+    <t>Рефакторинг кода</t>
+  </si>
+  <si>
+    <t>Разбор кода</t>
+  </si>
+  <si>
+    <t>Компонент</t>
+  </si>
+  <si>
+    <t>Архитектор по</t>
+  </si>
+  <si>
+    <t>Реализация</t>
+  </si>
+  <si>
+    <t>Кодировать</t>
+  </si>
+  <si>
+    <t>Графический интерфейс пользователя</t>
+  </si>
+  <si>
+    <t>Интерфейсное проектирование</t>
+  </si>
+  <si>
+    <t>Шаблон проектирования</t>
+  </si>
+  <si>
+    <t>Абстрагирование</t>
+  </si>
+  <si>
+    <t>Детальное проектирование</t>
+  </si>
+  <si>
+    <t>Предварительное проектирование</t>
+  </si>
+  <si>
+    <t>Наследование классов</t>
+  </si>
+  <si>
+    <t>Объединять</t>
+  </si>
+  <si>
+    <t>Резервные копии</t>
+  </si>
+  <si>
+    <t>Программный интерфейс приложения</t>
+  </si>
+  <si>
+    <t>Подсистема</t>
+  </si>
+  <si>
+    <t>Встроенный</t>
+  </si>
+  <si>
+    <t>Командная строка</t>
+  </si>
+  <si>
+    <t>Парсить</t>
+  </si>
+  <si>
+    <t>Дефект</t>
+  </si>
+  <si>
+    <t>По, являющееся частью встроенной системы</t>
+  </si>
+  <si>
+    <t>Объектно-ориентированное программирование</t>
+  </si>
+  <si>
+    <t>Интегрировать</t>
+  </si>
+  <si>
+    <t>Дублированный код</t>
+  </si>
+  <si>
+    <t>Читабельность</t>
+  </si>
+  <si>
+    <t>Скрипт</t>
+  </si>
+  <si>
+    <t>Высокоуровневый</t>
+  </si>
+  <si>
+    <t>Низкоуровневый</t>
+  </si>
+  <si>
+    <t>Рабочий процесс</t>
+  </si>
+  <si>
+    <t>Переход</t>
+  </si>
+  <si>
+    <t>Конструирование</t>
+  </si>
+  <si>
+    <t>Уточнение</t>
+  </si>
+  <si>
+    <t>Начало</t>
+  </si>
+  <si>
+    <t>Артефакт</t>
+  </si>
+  <si>
+    <t>Существующий</t>
+  </si>
+  <si>
+    <t>Изобретать</t>
+  </si>
+  <si>
+    <t>Делать вклад</t>
+  </si>
+  <si>
+    <t>Библиотека</t>
+  </si>
+  <si>
+    <t>Инженер по по</t>
+  </si>
+  <si>
+    <t>Кодировщик</t>
+  </si>
+  <si>
+    <t>Компилятор</t>
+  </si>
+  <si>
+    <t>Регрессионное тестирование</t>
+  </si>
+  <si>
+    <t>Совместимость с предыдущими версиями</t>
+  </si>
+  <si>
+    <t>Программа проверки синтаксиса</t>
+  </si>
+  <si>
+    <t>Правка</t>
+  </si>
+  <si>
+    <t>Явный</t>
+  </si>
+  <si>
+    <t>Скрытый</t>
+  </si>
+  <si>
+    <t>Отладчик</t>
+  </si>
+  <si>
+    <t>Контрольный пример</t>
+  </si>
+  <si>
+    <t>Тестовое покрытие</t>
+  </si>
+  <si>
+    <t>Взаимодействовать</t>
+  </si>
+  <si>
+    <t>Неисполняемый код</t>
+  </si>
+  <si>
+    <t>Сбой</t>
+  </si>
+  <si>
+    <t>Ошибка</t>
+  </si>
+  <si>
+    <t>Происходить</t>
+  </si>
+  <si>
+    <t>Цикличный процесс</t>
+  </si>
+  <si>
+    <t>Допустимый</t>
+  </si>
+  <si>
+    <t>Проводить</t>
+  </si>
+  <si>
+    <t>Соответствующий</t>
+  </si>
+  <si>
+    <t>Ввод</t>
+  </si>
+  <si>
+    <t>Бета-тестирование</t>
+  </si>
+  <si>
+    <t>Тестирование компонентов</t>
+  </si>
+  <si>
+    <t>Соответствовать</t>
+  </si>
+  <si>
+    <t>Возникать</t>
+  </si>
+  <si>
+    <t>Выявление неисправностей</t>
+  </si>
+  <si>
+    <t>Недостаточный</t>
+  </si>
+  <si>
+    <t>Тестировщик автоматизатор</t>
+  </si>
+  <si>
+    <t>Специалист по контролю качества</t>
+  </si>
+  <si>
+    <t>Тестировщик</t>
+  </si>
+  <si>
+    <t>Полуавтоматизированный</t>
+  </si>
+  <si>
+    <t>Время задержки</t>
+  </si>
+  <si>
+    <t>Время опережения</t>
+  </si>
+  <si>
+    <t>Фиксировать</t>
+  </si>
+  <si>
+    <t>Внесерверная обработка данных</t>
+  </si>
+  <si>
+    <t>Микросервис</t>
+  </si>
+  <si>
+    <t>Модифицируемость</t>
+  </si>
+  <si>
+    <t>Возможность развертывания</t>
+  </si>
+  <si>
+    <t>Выпуск пробной версии</t>
+  </si>
+  <si>
+    <t>Доступный</t>
+  </si>
+  <si>
+    <t>Устранение</t>
+  </si>
+  <si>
+    <t>Технология непрерывного развёртывания по</t>
+  </si>
+  <si>
+    <t>Автоматически</t>
+  </si>
+  <si>
+    <t>Вручную</t>
+  </si>
+  <si>
+    <t>Оптимизированный под требования заказчика</t>
+  </si>
+  <si>
+    <t>Точный</t>
+  </si>
+  <si>
+    <t>Обнаруживать</t>
+  </si>
+  <si>
+    <t>Центральный репозиторий</t>
+  </si>
+  <si>
+    <t>Непрерывная интеграция</t>
+  </si>
+  <si>
+    <t>Удаление</t>
+  </si>
+  <si>
+    <t>Отслеживание версий</t>
+  </si>
+  <si>
+    <t>Адаптация</t>
+  </si>
+  <si>
+    <t>Деактивация</t>
+  </si>
+  <si>
+    <t>Активация</t>
+  </si>
+  <si>
+    <t>Установка</t>
+  </si>
+  <si>
+    <t>Курировать</t>
+  </si>
+  <si>
+    <t>Интеграция разработки и эксплуатации</t>
+  </si>
+  <si>
+    <t>Логическая ошибка</t>
+  </si>
+  <si>
+    <t>Семантическая ошибка</t>
+  </si>
+  <si>
+    <t>Синтаксическая ошибка</t>
+  </si>
+  <si>
+    <t>Допустимая погрешность</t>
+  </si>
+  <si>
+    <t>Незначительные изменения</t>
+  </si>
+  <si>
+    <t>Убеждать</t>
+  </si>
+  <si>
+    <t>Доказывать</t>
+  </si>
+  <si>
+    <t>Служба поддержки</t>
+  </si>
+  <si>
+    <t>Перенос данных</t>
+  </si>
+  <si>
+    <t>Вывод из эксплуатации</t>
+  </si>
+  <si>
+    <t>Сложность</t>
+  </si>
+  <si>
+    <t>Срок гарантийного обслуживания</t>
+  </si>
+  <si>
+    <t>Развивать</t>
+  </si>
+  <si>
+    <t>Внеплановое техническое обслуживание</t>
+  </si>
+  <si>
+    <t>Оперативная коррекция</t>
+  </si>
+  <si>
+    <t>Эксплуатационный персонал по</t>
+  </si>
+  <si>
+    <t>Переменные</t>
+  </si>
+  <si>
+    <t>Склонный к ошибкам</t>
+  </si>
+  <si>
+    <t>Инструмент отслеживания дефектов</t>
+  </si>
+  <si>
+    <t>Внесение изменений в конструкцию</t>
+  </si>
+  <si>
+    <t>Регулирование</t>
+  </si>
+  <si>
+    <t>Устарелый</t>
+  </si>
+  <si>
+    <t>Совмещение</t>
+  </si>
+  <si>
+    <t>Оптимизировать</t>
+  </si>
+  <si>
+    <t>Профилактическое сопровождение</t>
+  </si>
+  <si>
+    <t>Совершенствующее сопровождение</t>
+  </si>
+  <si>
+    <t>Адаптирующее сопровождение</t>
+  </si>
+  <si>
+    <t>Корректирующее сопровождение</t>
+  </si>
+  <si>
+    <t>Неприемлемый</t>
+  </si>
+  <si>
+    <t>Предотвращать</t>
+  </si>
+  <si>
+    <t>Влияние на</t>
+  </si>
+  <si>
+    <t>Унаследованное по</t>
   </si>
 </sst>
 </file>
@@ -1640,7 +2870,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B214"/>
+  <dimension ref="A1:B424"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1659,7 +2889,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1667,7 +2897,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1675,7 +2905,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>217</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1683,7 +2913,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>218</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1691,7 +2921,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1699,7 +2929,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>219</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1707,7 +2937,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>220</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1715,7 +2945,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1723,7 +2953,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>221</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1731,7 +2961,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>222</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1739,7 +2969,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1747,7 +2977,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>224</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1755,7 +2985,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>225</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1763,7 +2993,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>226</v>
+        <v>434</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1771,7 +3001,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>227</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1779,7 +3009,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>228</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1787,7 +3017,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>229</v>
+        <v>437</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1795,7 +3025,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>230</v>
+        <v>438</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1803,7 +3033,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>231</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1811,7 +3041,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>232</v>
+        <v>440</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1819,7 +3049,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>233</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1827,7 +3057,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>234</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1835,7 +3065,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>235</v>
+        <v>443</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1843,7 +3073,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>236</v>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1851,7 +3081,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>237</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1859,7 +3089,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>238</v>
+        <v>446</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1867,7 +3097,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>239</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1875,7 +3105,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>240</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1883,7 +3113,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>241</v>
+        <v>449</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1891,7 +3121,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>242</v>
+        <v>450</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1899,7 +3129,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>243</v>
+        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1907,7 +3137,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>244</v>
+        <v>452</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1915,7 +3145,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>245</v>
+        <v>453</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1923,7 +3153,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>246</v>
+        <v>454</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1931,7 +3161,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>247</v>
+        <v>455</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1939,7 +3169,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>248</v>
+        <v>456</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1947,7 +3177,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>249</v>
+        <v>457</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1955,7 +3185,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>250</v>
+        <v>458</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1963,7 +3193,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>251</v>
+        <v>459</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1971,7 +3201,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>252</v>
+        <v>460</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1979,7 +3209,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>253</v>
+        <v>461</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1987,7 +3217,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>254</v>
+        <v>462</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1995,7 +3225,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>255</v>
+        <v>463</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2003,7 +3233,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>256</v>
+        <v>464</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2011,7 +3241,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>257</v>
+        <v>465</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2019,7 +3249,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>258</v>
+        <v>466</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2027,7 +3257,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>259</v>
+        <v>467</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2035,7 +3265,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>260</v>
+        <v>468</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2043,7 +3273,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>261</v>
+        <v>469</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2051,7 +3281,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>262</v>
+        <v>470</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2059,7 +3289,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>263</v>
+        <v>471</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2067,7 +3297,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>264</v>
+        <v>472</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2075,7 +3305,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>265</v>
+        <v>473</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2083,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>266</v>
+        <v>474</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2091,7 +3321,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>267</v>
+        <v>475</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2099,7 +3329,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>268</v>
+        <v>476</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2107,7 +3337,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>269</v>
+        <v>477</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2115,7 +3345,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>270</v>
+        <v>478</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2123,7 +3353,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>271</v>
+        <v>479</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2131,7 +3361,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>272</v>
+        <v>480</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2139,7 +3369,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>273</v>
+        <v>481</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2147,7 +3377,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>256</v>
+        <v>464</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2155,7 +3385,7 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>274</v>
+        <v>482</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2163,7 +3393,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>275</v>
+        <v>483</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2171,7 +3401,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>276</v>
+        <v>484</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2179,7 +3409,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>277</v>
+        <v>485</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2187,7 +3417,7 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>278</v>
+        <v>486</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2195,7 +3425,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>279</v>
+        <v>487</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2203,7 +3433,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>280</v>
+        <v>488</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2211,7 +3441,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>242</v>
+        <v>450</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2219,7 +3449,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>281</v>
+        <v>489</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2227,7 +3457,7 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>282</v>
+        <v>490</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2235,7 +3465,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>283</v>
+        <v>491</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2243,7 +3473,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>284</v>
+        <v>492</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2251,7 +3481,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>285</v>
+        <v>493</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2259,7 +3489,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>286</v>
+        <v>494</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2267,7 +3497,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>287</v>
+        <v>495</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2275,7 +3505,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>288</v>
+        <v>496</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2283,7 +3513,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>289</v>
+        <v>497</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2291,7 +3521,7 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>290</v>
+        <v>498</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2299,7 +3529,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>291</v>
+        <v>499</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2307,7 +3537,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>292</v>
+        <v>500</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2315,7 +3545,7 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>293</v>
+        <v>501</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2323,7 +3553,7 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>294</v>
+        <v>502</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2331,7 +3561,7 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>295</v>
+        <v>503</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2339,7 +3569,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>296</v>
+        <v>504</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2347,7 +3577,7 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>297</v>
+        <v>505</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2355,7 +3585,7 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>298</v>
+        <v>506</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2363,7 +3593,7 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>299</v>
+        <v>507</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2371,7 +3601,7 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>300</v>
+        <v>508</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2379,7 +3609,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>301</v>
+        <v>509</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2387,7 +3617,7 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>302</v>
+        <v>510</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2395,7 +3625,7 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>303</v>
+        <v>511</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2403,7 +3633,7 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>304</v>
+        <v>512</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2411,7 +3641,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>305</v>
+        <v>513</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2419,7 +3649,7 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>306</v>
+        <v>514</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2427,7 +3657,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>307</v>
+        <v>515</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2435,7 +3665,7 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>308</v>
+        <v>516</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2443,7 +3673,7 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>309</v>
+        <v>517</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2451,7 +3681,7 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>310</v>
+        <v>518</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2459,7 +3689,7 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>311</v>
+        <v>519</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2467,7 +3697,7 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>312</v>
+        <v>520</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2475,7 +3705,7 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>313</v>
+        <v>521</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2483,7 +3713,7 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>314</v>
+        <v>522</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2491,7 +3721,7 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>315</v>
+        <v>523</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2499,7 +3729,7 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>316</v>
+        <v>524</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2507,7 +3737,7 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>317</v>
+        <v>525</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2515,7 +3745,7 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>318</v>
+        <v>526</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2523,7 +3753,7 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>319</v>
+        <v>527</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2531,7 +3761,7 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>320</v>
+        <v>528</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2539,7 +3769,7 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>321</v>
+        <v>529</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2547,7 +3777,7 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>322</v>
+        <v>530</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2555,7 +3785,7 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>323</v>
+        <v>531</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2563,7 +3793,7 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>324</v>
+        <v>532</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2571,7 +3801,7 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>325</v>
+        <v>533</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2579,7 +3809,7 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>326</v>
+        <v>534</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2587,7 +3817,7 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>327</v>
+        <v>535</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2595,7 +3825,7 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>328</v>
+        <v>536</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2603,7 +3833,7 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>329</v>
+        <v>537</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2611,7 +3841,7 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>330</v>
+        <v>538</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2619,7 +3849,7 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>331</v>
+        <v>539</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2627,7 +3857,7 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>332</v>
+        <v>540</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2635,7 +3865,7 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>333</v>
+        <v>541</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2643,7 +3873,7 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>334</v>
+        <v>542</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2651,7 +3881,7 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>335</v>
+        <v>543</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2659,7 +3889,7 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>336</v>
+        <v>544</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2667,7 +3897,7 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>337</v>
+        <v>545</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2675,7 +3905,7 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>338</v>
+        <v>546</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2683,7 +3913,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>339</v>
+        <v>547</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2691,7 +3921,7 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>340</v>
+        <v>548</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2699,7 +3929,7 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>341</v>
+        <v>549</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2707,7 +3937,7 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>342</v>
+        <v>550</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2715,7 +3945,7 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>343</v>
+        <v>551</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2723,7 +3953,7 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>344</v>
+        <v>552</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2731,7 +3961,7 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>345</v>
+        <v>553</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2739,7 +3969,7 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>346</v>
+        <v>554</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2747,7 +3977,7 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>347</v>
+        <v>555</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2755,7 +3985,7 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>348</v>
+        <v>556</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2763,7 +3993,7 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>349</v>
+        <v>557</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2771,7 +4001,7 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>350</v>
+        <v>558</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2779,7 +4009,7 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>351</v>
+        <v>559</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2787,7 +4017,7 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>352</v>
+        <v>560</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2795,7 +4025,7 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>353</v>
+        <v>561</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2803,7 +4033,7 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>354</v>
+        <v>562</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2811,7 +4041,7 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>355</v>
+        <v>563</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2819,7 +4049,7 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>356</v>
+        <v>564</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2827,7 +4057,7 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>357</v>
+        <v>565</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2835,7 +4065,7 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>358</v>
+        <v>566</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2843,7 +4073,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>359</v>
+        <v>567</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2851,7 +4081,7 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>360</v>
+        <v>568</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2859,7 +4089,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>251</v>
+        <v>459</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2867,7 +4097,7 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>361</v>
+        <v>569</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2875,7 +4105,7 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>362</v>
+        <v>570</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2883,7 +4113,7 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>363</v>
+        <v>571</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2891,7 +4121,7 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>364</v>
+        <v>572</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2899,7 +4129,7 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>365</v>
+        <v>573</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2907,7 +4137,7 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>366</v>
+        <v>574</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2915,7 +4145,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>367</v>
+        <v>575</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2923,7 +4153,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>368</v>
+        <v>576</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2931,7 +4161,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>369</v>
+        <v>577</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2939,7 +4169,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>370</v>
+        <v>578</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2947,7 +4177,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>371</v>
+        <v>579</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2955,7 +4185,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>372</v>
+        <v>580</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2963,7 +4193,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>373</v>
+        <v>581</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2971,7 +4201,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>374</v>
+        <v>582</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2979,7 +4209,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>375</v>
+        <v>583</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2987,7 +4217,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>376</v>
+        <v>584</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2995,7 +4225,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>377</v>
+        <v>585</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3003,7 +4233,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>378</v>
+        <v>586</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3011,7 +4241,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>379</v>
+        <v>587</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3019,7 +4249,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>380</v>
+        <v>588</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3027,7 +4257,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>381</v>
+        <v>589</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3035,7 +4265,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>382</v>
+        <v>590</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3043,7 +4273,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>383</v>
+        <v>591</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3051,7 +4281,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>384</v>
+        <v>592</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3059,7 +4289,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>385</v>
+        <v>593</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3067,7 +4297,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>386</v>
+        <v>594</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3075,7 +4305,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>387</v>
+        <v>595</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3083,7 +4313,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>388</v>
+        <v>596</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3091,7 +4321,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>389</v>
+        <v>597</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3099,7 +4329,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>390</v>
+        <v>598</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3107,7 +4337,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>391</v>
+        <v>599</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3115,7 +4345,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>392</v>
+        <v>600</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3123,7 +4353,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>393</v>
+        <v>601</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3131,7 +4361,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>394</v>
+        <v>602</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3139,7 +4369,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>395</v>
+        <v>603</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3147,7 +4377,7 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>396</v>
+        <v>604</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3155,7 +4385,7 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>397</v>
+        <v>605</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3163,7 +4393,7 @@
         <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>398</v>
+        <v>606</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3171,7 +4401,7 @@
         <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>399</v>
+        <v>607</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3179,7 +4409,7 @@
         <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>400</v>
+        <v>608</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3187,7 +4417,7 @@
         <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>401</v>
+        <v>609</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3195,7 +4425,7 @@
         <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>402</v>
+        <v>610</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3203,7 +4433,7 @@
         <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>403</v>
+        <v>611</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3211,7 +4441,7 @@
         <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>404</v>
+        <v>612</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3219,7 +4449,7 @@
         <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>405</v>
+        <v>613</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3227,7 +4457,7 @@
         <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>406</v>
+        <v>614</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3235,7 +4465,7 @@
         <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>407</v>
+        <v>615</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3243,7 +4473,7 @@
         <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>408</v>
+        <v>616</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3251,7 +4481,7 @@
         <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>409</v>
+        <v>617</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3259,7 +4489,7 @@
         <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>410</v>
+        <v>618</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3267,7 +4497,7 @@
         <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>411</v>
+        <v>619</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3275,7 +4505,7 @@
         <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>412</v>
+        <v>620</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3283,7 +4513,7 @@
         <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>413</v>
+        <v>621</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3291,7 +4521,7 @@
         <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>414</v>
+        <v>622</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3299,7 +4529,7 @@
         <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>415</v>
+        <v>623</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3307,7 +4537,7 @@
         <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>416</v>
+        <v>624</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3315,7 +4545,7 @@
         <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>417</v>
+        <v>625</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3323,7 +4553,7 @@
         <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>418</v>
+        <v>626</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3331,7 +4561,7 @@
         <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>419</v>
+        <v>627</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3339,7 +4569,7 @@
         <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>420</v>
+        <v>628</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3347,7 +4577,7 @@
         <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>421</v>
+        <v>629</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3355,7 +4585,1687 @@
         <v>214</v>
       </c>
       <c r="B214" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>240</v>
+      </c>
+      <c r="B240" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>241</v>
+      </c>
+      <c r="B241" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>243</v>
+      </c>
+      <c r="B243" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>244</v>
+      </c>
+      <c r="B244" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>245</v>
+      </c>
+      <c r="B245" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>246</v>
+      </c>
+      <c r="B246" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>247</v>
+      </c>
+      <c r="B247" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>248</v>
+      </c>
+      <c r="B248" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>249</v>
+      </c>
+      <c r="B249" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>250</v>
+      </c>
+      <c r="B250" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>251</v>
+      </c>
+      <c r="B251" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>252</v>
+      </c>
+      <c r="B252" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>253</v>
+      </c>
+      <c r="B253" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>254</v>
+      </c>
+      <c r="B254" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>255</v>
+      </c>
+      <c r="B255" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>256</v>
+      </c>
+      <c r="B256" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>257</v>
+      </c>
+      <c r="B257" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>258</v>
+      </c>
+      <c r="B258" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>259</v>
+      </c>
+      <c r="B259" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>260</v>
+      </c>
+      <c r="B260" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>261</v>
+      </c>
+      <c r="B261" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>262</v>
+      </c>
+      <c r="B262" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>263</v>
+      </c>
+      <c r="B263" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>264</v>
+      </c>
+      <c r="B264" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>265</v>
+      </c>
+      <c r="B265" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>266</v>
+      </c>
+      <c r="B266" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>267</v>
+      </c>
+      <c r="B267" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>268</v>
+      </c>
+      <c r="B268" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>269</v>
+      </c>
+      <c r="B269" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>270</v>
+      </c>
+      <c r="B270" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>271</v>
+      </c>
+      <c r="B271" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>272</v>
+      </c>
+      <c r="B272" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>273</v>
+      </c>
+      <c r="B273" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>274</v>
+      </c>
+      <c r="B274" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>275</v>
+      </c>
+      <c r="B275" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
+        <v>276</v>
+      </c>
+      <c r="B276" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>277</v>
+      </c>
+      <c r="B277" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>278</v>
+      </c>
+      <c r="B278" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>279</v>
+      </c>
+      <c r="B279" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>280</v>
+      </c>
+      <c r="B280" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>194</v>
+      </c>
+      <c r="B281" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" t="s">
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
+        <v>304</v>
+      </c>
+      <c r="B305" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
+        <v>305</v>
+      </c>
+      <c r="B306" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
+        <v>306</v>
+      </c>
+      <c r="B307" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
+        <v>307</v>
+      </c>
+      <c r="B308" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" t="s">
+        <v>308</v>
+      </c>
+      <c r="B309" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
+        <v>309</v>
+      </c>
+      <c r="B310" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" t="s">
+        <v>310</v>
+      </c>
+      <c r="B311" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" t="s">
+        <v>311</v>
+      </c>
+      <c r="B312" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" t="s">
+        <v>312</v>
+      </c>
+      <c r="B313" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" t="s">
+        <v>313</v>
+      </c>
+      <c r="B314" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" t="s">
+        <v>314</v>
+      </c>
+      <c r="B315" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" t="s">
+        <v>315</v>
+      </c>
+      <c r="B316" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" t="s">
+        <v>316</v>
+      </c>
+      <c r="B317" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" t="s">
+        <v>317</v>
+      </c>
+      <c r="B318" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
+        <v>318</v>
+      </c>
+      <c r="B319" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
+        <v>319</v>
+      </c>
+      <c r="B320" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" t="s">
+        <v>320</v>
+      </c>
+      <c r="B321" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" t="s">
+        <v>321</v>
+      </c>
+      <c r="B322" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" t="s">
+        <v>322</v>
+      </c>
+      <c r="B323" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" t="s">
+        <v>323</v>
+      </c>
+      <c r="B324" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" t="s">
+        <v>324</v>
+      </c>
+      <c r="B325" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" t="s">
+        <v>325</v>
+      </c>
+      <c r="B326" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" t="s">
+        <v>326</v>
+      </c>
+      <c r="B327" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" t="s">
+        <v>327</v>
+      </c>
+      <c r="B328" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" t="s">
+        <v>328</v>
+      </c>
+      <c r="B329" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" t="s">
+        <v>329</v>
+      </c>
+      <c r="B330" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" t="s">
+        <v>330</v>
+      </c>
+      <c r="B331" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" t="s">
+        <v>331</v>
+      </c>
+      <c r="B332" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" t="s">
+        <v>332</v>
+      </c>
+      <c r="B333" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" t="s">
+        <v>333</v>
+      </c>
+      <c r="B334" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" t="s">
+        <v>334</v>
+      </c>
+      <c r="B335" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" t="s">
+        <v>335</v>
+      </c>
+      <c r="B336" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" t="s">
+        <v>336</v>
+      </c>
+      <c r="B337" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" t="s">
+        <v>337</v>
+      </c>
+      <c r="B338" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" t="s">
+        <v>338</v>
+      </c>
+      <c r="B339" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" t="s">
+        <v>339</v>
+      </c>
+      <c r="B340" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" t="s">
+        <v>340</v>
+      </c>
+      <c r="B341" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" t="s">
+        <v>341</v>
+      </c>
+      <c r="B342" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" t="s">
+        <v>342</v>
+      </c>
+      <c r="B343" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" t="s">
+        <v>343</v>
+      </c>
+      <c r="B344" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" t="s">
+        <v>344</v>
+      </c>
+      <c r="B345" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" t="s">
+        <v>345</v>
+      </c>
+      <c r="B346" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" t="s">
+        <v>346</v>
+      </c>
+      <c r="B347" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" t="s">
+        <v>347</v>
+      </c>
+      <c r="B348" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" t="s">
+        <v>348</v>
+      </c>
+      <c r="B349" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" t="s">
+        <v>349</v>
+      </c>
+      <c r="B350" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" t="s">
+        <v>350</v>
+      </c>
+      <c r="B351" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" t="s">
+        <v>351</v>
+      </c>
+      <c r="B352" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" t="s">
+        <v>352</v>
+      </c>
+      <c r="B353" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" t="s">
+        <v>353</v>
+      </c>
+      <c r="B354" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" t="s">
+        <v>354</v>
+      </c>
+      <c r="B355" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" t="s">
+        <v>355</v>
+      </c>
+      <c r="B356" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" t="s">
+        <v>356</v>
+      </c>
+      <c r="B357" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" t="s">
+        <v>357</v>
+      </c>
+      <c r="B358" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" t="s">
+        <v>358</v>
+      </c>
+      <c r="B359" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" t="s">
+        <v>359</v>
+      </c>
+      <c r="B360" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" t="s">
+        <v>360</v>
+      </c>
+      <c r="B361" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" t="s">
+        <v>361</v>
+      </c>
+      <c r="B362" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" t="s">
+        <v>362</v>
+      </c>
+      <c r="B363" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" t="s">
+        <v>363</v>
+      </c>
+      <c r="B364" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" t="s">
+        <v>364</v>
+      </c>
+      <c r="B365" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" t="s">
+        <v>365</v>
+      </c>
+      <c r="B366" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" t="s">
+        <v>366</v>
+      </c>
+      <c r="B367" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" t="s">
+        <v>367</v>
+      </c>
+      <c r="B368" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" t="s">
+        <v>368</v>
+      </c>
+      <c r="B369" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" t="s">
+        <v>369</v>
+      </c>
+      <c r="B370" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" t="s">
+        <v>370</v>
+      </c>
+      <c r="B371" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" t="s">
+        <v>371</v>
+      </c>
+      <c r="B372" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" t="s">
+        <v>372</v>
+      </c>
+      <c r="B373" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" t="s">
+        <v>373</v>
+      </c>
+      <c r="B374" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" t="s">
+        <v>374</v>
+      </c>
+      <c r="B375" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" t="s">
+        <v>375</v>
+      </c>
+      <c r="B376" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" t="s">
+        <v>376</v>
+      </c>
+      <c r="B377" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" t="s">
+        <v>377</v>
+      </c>
+      <c r="B378" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" t="s">
+        <v>378</v>
+      </c>
+      <c r="B379" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" t="s">
+        <v>379</v>
+      </c>
+      <c r="B380" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" t="s">
+        <v>380</v>
+      </c>
+      <c r="B381" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" t="s">
+        <v>381</v>
+      </c>
+      <c r="B382" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" t="s">
+        <v>382</v>
+      </c>
+      <c r="B383" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" t="s">
+        <v>383</v>
+      </c>
+      <c r="B384" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" t="s">
+        <v>384</v>
+      </c>
+      <c r="B385" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" t="s">
+        <v>385</v>
+      </c>
+      <c r="B386" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" t="s">
+        <v>386</v>
+      </c>
+      <c r="B387" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" t="s">
+        <v>387</v>
+      </c>
+      <c r="B388" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" t="s">
+        <v>388</v>
+      </c>
+      <c r="B389" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" t="s">
+        <v>138</v>
+      </c>
+      <c r="B390" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" t="s">
+        <v>389</v>
+      </c>
+      <c r="B391" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" t="s">
+        <v>390</v>
+      </c>
+      <c r="B392" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" t="s">
+        <v>391</v>
+      </c>
+      <c r="B393" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" t="s">
+        <v>392</v>
+      </c>
+      <c r="B394" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" t="s">
+        <v>393</v>
+      </c>
+      <c r="B395" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" t="s">
+        <v>394</v>
+      </c>
+      <c r="B396" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" t="s">
+        <v>395</v>
+      </c>
+      <c r="B397" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" t="s">
+        <v>396</v>
+      </c>
+      <c r="B398" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" t="s">
+        <v>397</v>
+      </c>
+      <c r="B399" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" t="s">
+        <v>398</v>
+      </c>
+      <c r="B400" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" t="s">
+        <v>399</v>
+      </c>
+      <c r="B401" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" t="s">
+        <v>400</v>
+      </c>
+      <c r="B402" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" t="s">
+        <v>401</v>
+      </c>
+      <c r="B403" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" t="s">
+        <v>402</v>
+      </c>
+      <c r="B404" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" t="s">
+        <v>403</v>
+      </c>
+      <c r="B405" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" t="s">
+        <v>404</v>
+      </c>
+      <c r="B406" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" t="s">
+        <v>405</v>
+      </c>
+      <c r="B407" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" t="s">
+        <v>406</v>
+      </c>
+      <c r="B408" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" t="s">
+        <v>407</v>
+      </c>
+      <c r="B409" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" t="s">
+        <v>408</v>
+      </c>
+      <c r="B410" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" t="s">
+        <v>409</v>
+      </c>
+      <c r="B411" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" t="s">
+        <v>410</v>
+      </c>
+      <c r="B412" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" t="s">
+        <v>411</v>
+      </c>
+      <c r="B413" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" t="s">
+        <v>412</v>
+      </c>
+      <c r="B414" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" t="s">
+        <v>413</v>
+      </c>
+      <c r="B415" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" t="s">
+        <v>414</v>
+      </c>
+      <c r="B416" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" t="s">
+        <v>415</v>
+      </c>
+      <c r="B417" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" t="s">
+        <v>416</v>
+      </c>
+      <c r="B418" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" t="s">
+        <v>417</v>
+      </c>
+      <c r="B419" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" t="s">
+        <v>418</v>
+      </c>
+      <c r="B420" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" t="s">
+        <v>419</v>
+      </c>
+      <c r="B421" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" t="s">
+        <v>420</v>
+      </c>
+      <c r="B422" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" t="s">
+        <v>421</v>
+      </c>
+      <c r="B423" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" t="s">
         <v>422</v>
+      </c>
+      <c r="B424" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Documents/WorkSpace/Home/Backend/Projects/Apps/Console_transtaler/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D331E0-4AB4-BF4B-8894-4747C06D3C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="837">
   <si>
     <t>English</t>
   </si>
@@ -2513,13 +2519,25 @@
   </si>
   <si>
     <t>Унаследованное по</t>
+  </si>
+  <si>
+    <t>As soon as possible (asap)</t>
+  </si>
+  <si>
+    <t>Как можно скорее</t>
+  </si>
+  <si>
+    <t>Idle</t>
+  </si>
+  <si>
+    <t>Простой</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2582,6 +2600,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2628,7 +2654,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2660,9 +2686,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2694,6 +2738,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2869,14 +2931,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B424"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B426"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
+      <selection activeCell="B419" sqref="B419"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2884,7 +2952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2892,7 +2960,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2900,7 +2968,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2908,7 +2976,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2916,7 +2984,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2924,7 +2992,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2932,7 +3000,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2940,7 +3008,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2948,7 +3016,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2956,7 +3024,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2964,7 +3032,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2972,7 +3040,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2980,7 +3048,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2988,7 +3056,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2996,7 +3064,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -3004,7 +3072,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -3012,7 +3080,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -3020,7 +3088,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -3028,7 +3096,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -3036,7 +3104,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -3044,7 +3112,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -3052,7 +3120,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -3060,7 +3128,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -3068,7 +3136,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -3076,7 +3144,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3084,7 +3152,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3092,7 +3160,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -3100,7 +3168,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -3108,7 +3176,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -3116,7 +3184,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -3124,7 +3192,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -3132,7 +3200,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -3140,7 +3208,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -3148,7 +3216,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -3156,7 +3224,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -3164,7 +3232,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -3172,7 +3240,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -3180,7 +3248,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -3188,7 +3256,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -3196,7 +3264,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -3204,7 +3272,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -3212,7 +3280,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -3220,7 +3288,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -3228,7 +3296,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -3236,7 +3304,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -3244,7 +3312,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -3252,7 +3320,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -3260,7 +3328,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -3268,7 +3336,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -3276,7 +3344,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -3284,7 +3352,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -3292,7 +3360,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -3300,7 +3368,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -3308,7 +3376,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -3316,7 +3384,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -3324,7 +3392,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -3332,7 +3400,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -3340,7 +3408,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -3348,7 +3416,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -3356,7 +3424,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -3364,7 +3432,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -3372,7 +3440,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -3380,7 +3448,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -3388,7 +3456,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -3396,7 +3464,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -3404,7 +3472,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -3412,7 +3480,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -3420,7 +3488,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -3428,7 +3496,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -3436,7 +3504,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -3444,7 +3512,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -3452,7 +3520,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -3460,7 +3528,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -3468,7 +3536,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -3476,7 +3544,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -3484,7 +3552,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -3492,7 +3560,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -3500,7 +3568,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -3508,7 +3576,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -3516,7 +3584,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -3524,7 +3592,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -3532,7 +3600,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -3540,7 +3608,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -3548,7 +3616,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -3556,7 +3624,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -3564,7 +3632,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -3572,7 +3640,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -3580,7 +3648,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -3588,7 +3656,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -3596,7 +3664,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -3604,7 +3672,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -3612,7 +3680,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -3620,7 +3688,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -3628,7 +3696,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -3636,7 +3704,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -3644,7 +3712,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -3652,7 +3720,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -3660,7 +3728,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -3668,7 +3736,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -3676,7 +3744,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -3684,7 +3752,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -3692,7 +3760,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -3700,7 +3768,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -3708,7 +3776,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -3716,7 +3784,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -3724,7 +3792,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -3732,7 +3800,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -3740,7 +3808,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -3748,7 +3816,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -3756,7 +3824,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -3764,7 +3832,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -3772,7 +3840,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -3780,7 +3848,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -3788,7 +3856,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -3796,7 +3864,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -3804,7 +3872,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -3812,7 +3880,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -3820,7 +3888,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -3828,7 +3896,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -3836,7 +3904,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -3844,7 +3912,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -3852,7 +3920,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -3860,7 +3928,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -3868,7 +3936,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -3876,7 +3944,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -3884,7 +3952,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -3892,7 +3960,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -3900,7 +3968,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -3908,7 +3976,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -3916,7 +3984,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -3924,7 +3992,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -3932,7 +4000,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -3940,7 +4008,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -3948,7 +4016,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -3956,7 +4024,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -3964,7 +4032,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -3972,7 +4040,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -3980,7 +4048,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -3988,7 +4056,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -3996,7 +4064,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -4004,7 +4072,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -4012,7 +4080,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -4020,7 +4088,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -4028,7 +4096,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -4036,7 +4104,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -4044,7 +4112,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -4052,7 +4120,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -4060,7 +4128,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -4068,7 +4136,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -4076,7 +4144,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -4084,7 +4152,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -4092,7 +4160,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -4100,7 +4168,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -4108,7 +4176,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -4116,7 +4184,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>156</v>
       </c>
@@ -4124,7 +4192,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>157</v>
       </c>
@@ -4132,7 +4200,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -4140,7 +4208,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -4148,7 +4216,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>160</v>
       </c>
@@ -4156,7 +4224,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -4164,7 +4232,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -4172,7 +4240,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -4180,7 +4248,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>164</v>
       </c>
@@ -4188,7 +4256,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>165</v>
       </c>
@@ -4196,7 +4264,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>166</v>
       </c>
@@ -4204,7 +4272,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>167</v>
       </c>
@@ -4212,7 +4280,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -4220,7 +4288,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>169</v>
       </c>
@@ -4228,7 +4296,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -4236,7 +4304,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -4244,7 +4312,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>172</v>
       </c>
@@ -4252,7 +4320,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>173</v>
       </c>
@@ -4260,7 +4328,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -4268,7 +4336,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>175</v>
       </c>
@@ -4276,7 +4344,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>176</v>
       </c>
@@ -4284,7 +4352,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>177</v>
       </c>
@@ -4292,7 +4360,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>178</v>
       </c>
@@ -4300,7 +4368,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>179</v>
       </c>
@@ -4308,7 +4376,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>180</v>
       </c>
@@ -4316,7 +4384,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>181</v>
       </c>
@@ -4324,7 +4392,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>182</v>
       </c>
@@ -4332,7 +4400,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>183</v>
       </c>
@@ -4340,7 +4408,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>184</v>
       </c>
@@ -4348,7 +4416,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>185</v>
       </c>
@@ -4356,7 +4424,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>186</v>
       </c>
@@ -4364,7 +4432,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>187</v>
       </c>
@@ -4372,7 +4440,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>188</v>
       </c>
@@ -4380,7 +4448,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>189</v>
       </c>
@@ -4388,7 +4456,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>190</v>
       </c>
@@ -4396,7 +4464,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>191</v>
       </c>
@@ -4404,7 +4472,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>192</v>
       </c>
@@ -4412,7 +4480,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>193</v>
       </c>
@@ -4420,7 +4488,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>194</v>
       </c>
@@ -4428,7 +4496,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>195</v>
       </c>
@@ -4436,7 +4504,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>196</v>
       </c>
@@ -4444,7 +4512,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>197</v>
       </c>
@@ -4452,7 +4520,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>198</v>
       </c>
@@ -4460,7 +4528,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>199</v>
       </c>
@@ -4468,7 +4536,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>200</v>
       </c>
@@ -4476,7 +4544,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>201</v>
       </c>
@@ -4484,7 +4552,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>202</v>
       </c>
@@ -4492,7 +4560,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>203</v>
       </c>
@@ -4500,7 +4568,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>204</v>
       </c>
@@ -4508,7 +4576,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>205</v>
       </c>
@@ -4516,7 +4584,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>206</v>
       </c>
@@ -4524,7 +4592,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>207</v>
       </c>
@@ -4532,7 +4600,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>208</v>
       </c>
@@ -4540,7 +4608,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>209</v>
       </c>
@@ -4548,7 +4616,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>210</v>
       </c>
@@ -4556,7 +4624,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>211</v>
       </c>
@@ -4564,7 +4632,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>212</v>
       </c>
@@ -4572,7 +4640,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>213</v>
       </c>
@@ -4580,7 +4648,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>214</v>
       </c>
@@ -4588,7 +4656,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>215</v>
       </c>
@@ -4596,7 +4664,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>216</v>
       </c>
@@ -4604,7 +4672,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>217</v>
       </c>
@@ -4612,7 +4680,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>218</v>
       </c>
@@ -4620,7 +4688,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>219</v>
       </c>
@@ -4628,7 +4696,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>220</v>
       </c>
@@ -4636,7 +4704,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>221</v>
       </c>
@@ -4644,7 +4712,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>222</v>
       </c>
@@ -4652,7 +4720,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>223</v>
       </c>
@@ -4660,7 +4728,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>224</v>
       </c>
@@ -4668,7 +4736,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>225</v>
       </c>
@@ -4676,7 +4744,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>226</v>
       </c>
@@ -4684,7 +4752,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>227</v>
       </c>
@@ -4692,7 +4760,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>228</v>
       </c>
@@ -4700,7 +4768,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>229</v>
       </c>
@@ -4708,7 +4776,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>230</v>
       </c>
@@ -4716,7 +4784,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>231</v>
       </c>
@@ -4724,7 +4792,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>232</v>
       </c>
@@ -4732,7 +4800,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>233</v>
       </c>
@@ -4740,7 +4808,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>234</v>
       </c>
@@ -4748,7 +4816,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>235</v>
       </c>
@@ -4756,7 +4824,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>236</v>
       </c>
@@ -4764,7 +4832,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>237</v>
       </c>
@@ -4772,7 +4840,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>238</v>
       </c>
@@ -4780,7 +4848,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>239</v>
       </c>
@@ -4788,7 +4856,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>240</v>
       </c>
@@ -4796,7 +4864,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>241</v>
       </c>
@@ -4804,7 +4872,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>242</v>
       </c>
@@ -4812,7 +4880,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>243</v>
       </c>
@@ -4820,7 +4888,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>244</v>
       </c>
@@ -4828,7 +4896,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>245</v>
       </c>
@@ -4836,7 +4904,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>246</v>
       </c>
@@ -4844,7 +4912,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>247</v>
       </c>
@@ -4852,7 +4920,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>248</v>
       </c>
@@ -4860,7 +4928,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>249</v>
       </c>
@@ -4868,7 +4936,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>250</v>
       </c>
@@ -4876,7 +4944,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>251</v>
       </c>
@@ -4884,7 +4952,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>252</v>
       </c>
@@ -4892,7 +4960,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>253</v>
       </c>
@@ -4900,7 +4968,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>254</v>
       </c>
@@ -4908,7 +4976,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>255</v>
       </c>
@@ -4916,7 +4984,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>256</v>
       </c>
@@ -4924,7 +4992,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>257</v>
       </c>
@@ -4932,7 +5000,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>258</v>
       </c>
@@ -4940,7 +5008,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>259</v>
       </c>
@@ -4948,7 +5016,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>260</v>
       </c>
@@ -4956,7 +5024,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>261</v>
       </c>
@@ -4964,7 +5032,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>262</v>
       </c>
@@ -4972,7 +5040,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>263</v>
       </c>
@@ -4980,7 +5048,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>264</v>
       </c>
@@ -4988,7 +5056,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>265</v>
       </c>
@@ -4996,7 +5064,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>266</v>
       </c>
@@ -5004,7 +5072,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>267</v>
       </c>
@@ -5012,7 +5080,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>268</v>
       </c>
@@ -5020,7 +5088,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>269</v>
       </c>
@@ -5028,7 +5096,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>270</v>
       </c>
@@ -5036,7 +5104,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>271</v>
       </c>
@@ -5044,7 +5112,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>272</v>
       </c>
@@ -5052,7 +5120,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>273</v>
       </c>
@@ -5060,7 +5128,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>274</v>
       </c>
@@ -5068,7 +5136,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>275</v>
       </c>
@@ -5076,7 +5144,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>276</v>
       </c>
@@ -5084,7 +5152,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>277</v>
       </c>
@@ -5092,7 +5160,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>278</v>
       </c>
@@ -5100,7 +5168,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>279</v>
       </c>
@@ -5108,7 +5176,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>280</v>
       </c>
@@ -5116,7 +5184,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>194</v>
       </c>
@@ -5124,7 +5192,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -5132,7 +5200,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -5140,7 +5208,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -5148,7 +5216,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -5156,7 +5224,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -5164,7 +5232,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -5172,7 +5240,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -5180,7 +5248,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -5188,7 +5256,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -5196,7 +5264,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -5204,7 +5272,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -5212,7 +5280,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -5220,7 +5288,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -5228,7 +5296,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -5236,7 +5304,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -5244,7 +5312,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -5252,7 +5320,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -5260,7 +5328,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -5268,7 +5336,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -5276,7 +5344,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -5284,7 +5352,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -5292,7 +5360,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>302</v>
       </c>
@@ -5300,7 +5368,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>303</v>
       </c>
@@ -5308,7 +5376,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>304</v>
       </c>
@@ -5316,7 +5384,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>305</v>
       </c>
@@ -5324,7 +5392,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>306</v>
       </c>
@@ -5332,7 +5400,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>307</v>
       </c>
@@ -5340,7 +5408,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>308</v>
       </c>
@@ -5348,7 +5416,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>309</v>
       </c>
@@ -5356,7 +5424,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>310</v>
       </c>
@@ -5364,7 +5432,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>311</v>
       </c>
@@ -5372,7 +5440,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>312</v>
       </c>
@@ -5380,7 +5448,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>313</v>
       </c>
@@ -5388,7 +5456,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -5396,7 +5464,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>315</v>
       </c>
@@ -5404,7 +5472,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>316</v>
       </c>
@@ -5412,7 +5480,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>317</v>
       </c>
@@ -5420,7 +5488,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>318</v>
       </c>
@@ -5428,7 +5496,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>319</v>
       </c>
@@ -5436,7 +5504,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>320</v>
       </c>
@@ -5444,7 +5512,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>321</v>
       </c>
@@ -5452,7 +5520,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>322</v>
       </c>
@@ -5460,7 +5528,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>323</v>
       </c>
@@ -5468,7 +5536,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>324</v>
       </c>
@@ -5476,7 +5544,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>325</v>
       </c>
@@ -5484,7 +5552,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>326</v>
       </c>
@@ -5492,7 +5560,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>327</v>
       </c>
@@ -5500,7 +5568,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>328</v>
       </c>
@@ -5508,7 +5576,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>329</v>
       </c>
@@ -5516,7 +5584,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>330</v>
       </c>
@@ -5524,7 +5592,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>331</v>
       </c>
@@ -5532,7 +5600,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>332</v>
       </c>
@@ -5540,7 +5608,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>333</v>
       </c>
@@ -5548,7 +5616,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>334</v>
       </c>
@@ -5556,7 +5624,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>335</v>
       </c>
@@ -5564,7 +5632,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>336</v>
       </c>
@@ -5572,7 +5640,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>337</v>
       </c>
@@ -5580,7 +5648,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>338</v>
       </c>
@@ -5588,7 +5656,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>339</v>
       </c>
@@ -5596,7 +5664,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>340</v>
       </c>
@@ -5604,7 +5672,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>341</v>
       </c>
@@ -5612,7 +5680,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>342</v>
       </c>
@@ -5620,7 +5688,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>343</v>
       </c>
@@ -5628,7 +5696,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>344</v>
       </c>
@@ -5636,7 +5704,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>345</v>
       </c>
@@ -5644,7 +5712,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>346</v>
       </c>
@@ -5652,7 +5720,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>347</v>
       </c>
@@ -5660,7 +5728,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>348</v>
       </c>
@@ -5668,7 +5736,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>349</v>
       </c>
@@ -5676,7 +5744,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="351" spans="1:2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>350</v>
       </c>
@@ -5684,7 +5752,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>351</v>
       </c>
@@ -5692,7 +5760,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="353" spans="1:2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>352</v>
       </c>
@@ -5700,7 +5768,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="354" spans="1:2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>353</v>
       </c>
@@ -5708,7 +5776,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="355" spans="1:2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>354</v>
       </c>
@@ -5716,7 +5784,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>355</v>
       </c>
@@ -5724,7 +5792,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="357" spans="1:2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>356</v>
       </c>
@@ -5732,7 +5800,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>357</v>
       </c>
@@ -5740,7 +5808,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="359" spans="1:2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>358</v>
       </c>
@@ -5748,7 +5816,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>359</v>
       </c>
@@ -5756,7 +5824,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="361" spans="1:2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>360</v>
       </c>
@@ -5764,7 +5832,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>361</v>
       </c>
@@ -5772,7 +5840,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>362</v>
       </c>
@@ -5780,7 +5848,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>363</v>
       </c>
@@ -5788,7 +5856,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="365" spans="1:2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>364</v>
       </c>
@@ -5796,7 +5864,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>365</v>
       </c>
@@ -5804,7 +5872,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="367" spans="1:2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>366</v>
       </c>
@@ -5812,7 +5880,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="368" spans="1:2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>367</v>
       </c>
@@ -5820,7 +5888,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="369" spans="1:2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>368</v>
       </c>
@@ -5828,7 +5896,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>369</v>
       </c>
@@ -5836,7 +5904,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="371" spans="1:2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>370</v>
       </c>
@@ -5844,7 +5912,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="372" spans="1:2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>371</v>
       </c>
@@ -5852,7 +5920,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="373" spans="1:2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>372</v>
       </c>
@@ -5860,7 +5928,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>373</v>
       </c>
@@ -5868,7 +5936,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="375" spans="1:2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>374</v>
       </c>
@@ -5876,7 +5944,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="376" spans="1:2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>375</v>
       </c>
@@ -5884,7 +5952,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>376</v>
       </c>
@@ -5892,7 +5960,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="378" spans="1:2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>377</v>
       </c>
@@ -5900,7 +5968,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>378</v>
       </c>
@@ -5908,7 +5976,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="380" spans="1:2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>379</v>
       </c>
@@ -5916,7 +5984,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="381" spans="1:2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>380</v>
       </c>
@@ -5924,7 +5992,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="382" spans="1:2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>381</v>
       </c>
@@ -5932,7 +6000,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="383" spans="1:2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>382</v>
       </c>
@@ -5940,7 +6008,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>383</v>
       </c>
@@ -5948,7 +6016,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="385" spans="1:2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>384</v>
       </c>
@@ -5956,7 +6024,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="386" spans="1:2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>385</v>
       </c>
@@ -5964,7 +6032,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="387" spans="1:2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>386</v>
       </c>
@@ -5972,7 +6040,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="388" spans="1:2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>387</v>
       </c>
@@ -5980,7 +6048,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="389" spans="1:2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>388</v>
       </c>
@@ -5988,7 +6056,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="390" spans="1:2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>138</v>
       </c>
@@ -5996,7 +6064,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>389</v>
       </c>
@@ -6004,7 +6072,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="392" spans="1:2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>390</v>
       </c>
@@ -6012,7 +6080,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="393" spans="1:2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>391</v>
       </c>
@@ -6020,7 +6088,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="394" spans="1:2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>392</v>
       </c>
@@ -6028,7 +6096,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="395" spans="1:2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>393</v>
       </c>
@@ -6036,7 +6104,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="396" spans="1:2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>394</v>
       </c>
@@ -6044,7 +6112,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="397" spans="1:2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>395</v>
       </c>
@@ -6052,7 +6120,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="398" spans="1:2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>396</v>
       </c>
@@ -6060,7 +6128,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="399" spans="1:2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>397</v>
       </c>
@@ -6068,7 +6136,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="400" spans="1:2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>398</v>
       </c>
@@ -6076,7 +6144,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="401" spans="1:2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>399</v>
       </c>
@@ -6084,7 +6152,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="402" spans="1:2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>400</v>
       </c>
@@ -6092,7 +6160,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="403" spans="1:2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>401</v>
       </c>
@@ -6100,7 +6168,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="404" spans="1:2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>402</v>
       </c>
@@ -6108,7 +6176,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="405" spans="1:2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>403</v>
       </c>
@@ -6116,7 +6184,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="406" spans="1:2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>404</v>
       </c>
@@ -6124,7 +6192,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="407" spans="1:2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>405</v>
       </c>
@@ -6132,7 +6200,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="408" spans="1:2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>406</v>
       </c>
@@ -6140,7 +6208,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="409" spans="1:2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>407</v>
       </c>
@@ -6148,7 +6216,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="410" spans="1:2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>408</v>
       </c>
@@ -6156,7 +6224,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="411" spans="1:2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>409</v>
       </c>
@@ -6164,7 +6232,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="412" spans="1:2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>410</v>
       </c>
@@ -6172,7 +6240,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="413" spans="1:2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>411</v>
       </c>
@@ -6180,7 +6248,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="414" spans="1:2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>412</v>
       </c>
@@ -6188,7 +6256,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="415" spans="1:2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>413</v>
       </c>
@@ -6196,7 +6264,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="416" spans="1:2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>414</v>
       </c>
@@ -6204,7 +6272,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="417" spans="1:2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>415</v>
       </c>
@@ -6212,7 +6280,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="418" spans="1:2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>416</v>
       </c>
@@ -6220,7 +6288,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="419" spans="1:2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>417</v>
       </c>
@@ -6228,7 +6296,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="420" spans="1:2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>418</v>
       </c>
@@ -6236,7 +6304,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="421" spans="1:2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>419</v>
       </c>
@@ -6244,7 +6312,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="422" spans="1:2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>420</v>
       </c>
@@ -6252,7 +6320,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="423" spans="1:2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>421</v>
       </c>
@@ -6260,12 +6328,28 @@
         <v>832</v>
       </c>
     </row>
-    <row r="424" spans="1:2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>422</v>
       </c>
       <c r="B424" t="s">
         <v>460</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>833</v>
+      </c>
+      <c r="B425" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>835</v>
+      </c>
+      <c r="B426" t="s">
+        <v>836</v>
       </c>
     </row>
   </sheetData>
